--- a/data/GRNmap_input_workbooks/wt_NEW_Input_16_Node.xlsx
+++ b/data/GRNmap_input_workbooks/wt_NEW_Input_16_Node.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14140" tabRatio="500" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14145" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="optimization_parameters" sheetId="6" r:id="rId10"/>
     <sheet name="threshold_b" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="52">
   <si>
     <t>ABF1</t>
   </si>
@@ -192,7 +192,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -371,8 +371,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="106">
@@ -485,6 +485,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -816,9 +821,9 @@
       <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -826,82 +831,82 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -921,53 +926,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -975,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -983,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -991,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -999,17 +1004,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1033,89 +1038,89 @@
       <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1138,9 +1143,9 @@
       <selection activeCell="F1" sqref="F1:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1154,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1182,7 +1187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1196,7 +1201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1210,7 +1215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1224,7 +1229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1238,7 +1243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1266,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1280,7 +1285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1294,7 +1299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1308,7 +1313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1322,7 +1327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1336,7 +1341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1350,7 +1355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1364,7 +1369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1391,13 +1396,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1441,7 +1446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1490,7 @@
         <v>-1.4733000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1505,8 +1510,8 @@
         <v>0.5827</v>
       </c>
       <c r="G3" s="5">
-        <f>AVERAGE(F3+H3+I3+J3+K3)</f>
-        <v>0.71629999999999994</v>
+        <f>AVERAGE(F3,H3,I3,J3,K3)</f>
+        <v>0.14326</v>
       </c>
       <c r="H3">
         <v>-0.3947</v>
@@ -1530,7 +1535,7 @@
         <v>-1.2497</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1550,8 +1555,8 @@
         <v>0.45</v>
       </c>
       <c r="G4" s="5">
-        <f>AVERAGE(F4+H4+I4+J4)</f>
-        <v>0.89949999999999997</v>
+        <f>AVERAGE(F4,H4,I4,J4)</f>
+        <v>0.22487499999999999</v>
       </c>
       <c r="H4">
         <v>1.3611</v>
@@ -1575,7 +1580,7 @@
         <v>-0.46479999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1619,7 +1624,7 @@
         <v>-1.595</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1668,7 @@
         <v>-0.92479999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1707,7 +1712,7 @@
         <v>1.4784999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +1756,7 @@
         <v>5.5500000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1800,7 @@
         <v>0.1953</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1839,7 +1844,7 @@
         <v>-1.8463000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1883,7 +1888,7 @@
         <v>2.2172000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1927,7 +1932,7 @@
         <v>-0.12709999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1971,7 +1976,7 @@
         <v>-1.0367</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2015,7 +2020,7 @@
         <v>0.28120000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2059,7 +2064,7 @@
         <v>-0.72499999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2103,7 +2108,7 @@
         <v>-0.51170000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2161,15 +2166,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2210,7 +2215,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2251,7 +2256,7 @@
         <v>-2.6553</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2277,8 +2282,8 @@
         <v>-0.42530000000000001</v>
       </c>
       <c r="I3" s="5">
-        <f>AVERAGE(F3+G3+H3)</f>
-        <v>-0.51080000000000003</v>
+        <f>AVERAGE(F3,G3,H3)</f>
+        <v>-0.17026666666666668</v>
       </c>
       <c r="J3">
         <v>0.56820000000000004</v>
@@ -2293,7 +2298,7 @@
         <v>-0.38879999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2335,7 +2340,7 @@
         <v>-7.6399999999999954E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2376,7 +2381,7 @@
         <v>-0.68400000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2417,7 +2422,7 @@
         <v>-1.3284</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2425,8 +2430,8 @@
         <v>-0.66849999999999998</v>
       </c>
       <c r="C7" s="5">
-        <f>AVERAGE(B7+D7+E7)</f>
-        <v>-1.2198</v>
+        <f>AVERAGE(B7,D7,E7)</f>
+        <v>-0.40660000000000002</v>
       </c>
       <c r="D7">
         <v>-0.43219999999999997</v>
@@ -2460,7 +2465,7 @@
         <v>0.4778</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2502,7 +2507,7 @@
         <v>-1.1007666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2544,7 +2549,7 @@
         <v>0.58510000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2585,7 +2590,7 @@
         <v>-1.2117</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2626,13 +2631,13 @@
         <v>1.4664999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <f>AVERAGE(C12+D12+E12)</f>
-        <v>0.60379999999999989</v>
+        <f>AVERAGE(C12,D12,E12)</f>
+        <v>0.20126666666666662</v>
       </c>
       <c r="C12">
         <v>-0.54890000000000005</v>
@@ -2668,7 +2673,7 @@
         <v>6.0299999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2710,7 +2715,7 @@
         <v>0.64766666666666672</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2718,8 +2723,8 @@
         <v>-0.4763</v>
       </c>
       <c r="C14" s="5">
-        <f>AVERAGE(B14+E14+D14)</f>
-        <v>-1.3588</v>
+        <f>AVERAGE(B14,E14,D14)</f>
+        <v>-0.45293333333333335</v>
       </c>
       <c r="D14">
         <v>-0.33360000000000001</v>
@@ -2752,7 +2757,7 @@
         <v>0.23119999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2793,7 +2798,7 @@
         <v>0.55789999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2834,7 +2839,7 @@
         <v>0.29849999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2873,134 +2878,6 @@
       </c>
       <c r="M17">
         <v>-4.41E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3016,15 +2893,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -3065,7 +2942,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3106,7 +2983,7 @@
         <v>-2.1126999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3147,7 +3024,7 @@
         <v>-0.1933</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3188,7 +3065,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3229,7 +3106,7 @@
         <v>-0.5121</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3270,7 +3147,7 @@
         <v>-1.3101</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3311,7 +3188,7 @@
         <v>2.5788000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3352,7 +3229,7 @@
         <v>-4.3327</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3393,7 +3270,7 @@
         <v>-0.161</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3434,7 +3311,7 @@
         <v>0.22559999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3475,7 +3352,7 @@
         <v>1.7134</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3516,7 +3393,7 @@
         <v>-0.28699999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3557,7 +3434,7 @@
         <v>1.2221</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3598,7 +3475,7 @@
         <v>-0.27239999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3639,13 +3516,13 @@
         <v>1.0390999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <f>AVERAGE(C16+D16+E16)</f>
-        <v>1.3661000000000001</v>
+        <f>AVERAGE(C16,D16,E16)</f>
+        <v>0.4553666666666667</v>
       </c>
       <c r="C16">
         <v>0.56440000000000001</v>
@@ -3681,7 +3558,7 @@
         <v>1.2979000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3692,8 +3569,8 @@
         <v>-0.22620000000000001</v>
       </c>
       <c r="D17" s="5">
-        <f>AVERAGE(E17+C17+B17)</f>
-        <v>-1.0418999999999998</v>
+        <f>AVERAGE(E17,C17,B17)</f>
+        <v>-0.34729999999999994</v>
       </c>
       <c r="E17">
         <v>0.40500000000000003</v>
@@ -3705,8 +3582,8 @@
         <v>1.7576000000000001</v>
       </c>
       <c r="H17" s="5">
-        <f>AVERAGE(F17+G17+I17)</f>
-        <v>2.5392999999999999</v>
+        <f>AVERAGE(F17,G17,I17)</f>
+        <v>0.84643333333333326</v>
       </c>
       <c r="I17">
         <v>1.3798999999999999</v>
@@ -3721,142 +3598,11 @@
         <v>-1.0851999999999999</v>
       </c>
       <c r="M17" s="5">
-        <f>AVERAGE(L17+K17+J17)</f>
-        <v>-3.2398999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
+        <f>AVERAGE(L17,K17,J17)</f>
+        <v>-1.0799666666666665</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A18:B33">
-    <sortCondition ref="B18:B33"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3869,15 +3615,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -3918,7 +3664,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3959,7 +3705,7 @@
         <v>-1.7587999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4000,7 +3746,7 @@
         <v>0.19850000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4041,7 +3787,7 @@
         <v>1.0931</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4082,7 +3828,7 @@
         <v>-1.3677999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4123,7 +3869,7 @@
         <v>-1.5982000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4164,7 +3910,7 @@
         <v>1.9187000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4205,7 +3951,7 @@
         <v>-0.53600000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -4246,7 +3992,7 @@
         <v>1.0246</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -4287,7 +4033,7 @@
         <v>-0.52849999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4328,7 +4074,7 @@
         <v>-0.2676</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4369,7 +4115,7 @@
         <v>0.34039999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4410,7 +4156,7 @@
         <v>0.45229999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -4436,8 +4182,8 @@
         <v>-0.1171</v>
       </c>
       <c r="I14" s="5">
-        <f>AVERAGE(H14+G14+F14)</f>
-        <v>-0.4083</v>
+        <f>AVERAGE(H14,G14,F14)</f>
+        <v>-0.1361</v>
       </c>
       <c r="J14">
         <v>0.3775</v>
@@ -4452,7 +4198,7 @@
         <v>0.20960000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -4493,7 +4239,7 @@
         <v>0.97740000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -4534,7 +4280,7 @@
         <v>-1.0412999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -4542,8 +4288,8 @@
         <v>-1.903</v>
       </c>
       <c r="C17" s="5">
-        <f>AVERAGE(B17+E17+D17)</f>
-        <v>-0.43340000000000001</v>
+        <f>AVERAGE(B17,E17,D17)</f>
+        <v>-0.14446666666666666</v>
       </c>
       <c r="D17">
         <v>1.5545</v>
@@ -4574,134 +4320,6 @@
       </c>
       <c r="M17">
         <v>-0.5958</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4720,12 +4338,12 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -4766,7 +4384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4807,7 +4425,7 @@
         <v>-3.6926999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4848,7 +4466,7 @@
         <v>-0.53690000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4883,15 +4501,15 @@
         <v>-8.4199999999999997E-2</v>
       </c>
       <c r="L4" s="5">
-        <f>AVERAGE(K4+J4)</f>
-        <v>0.46570000000000006</v>
+        <f>AVERAGE(K4,J4)</f>
+        <v>0.23285000000000003</v>
       </c>
       <c r="M4" s="5">
-        <f>AVERAGE(J4+K4)</f>
-        <v>0.46570000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <f>AVERAGE(J4,K4)</f>
+        <v>0.23285000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4932,7 +4550,7 @@
         <v>-1.6518999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4973,13 +4591,13 @@
         <v>-1.2416</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <f>AVERAGE(C7+D7+E7)</f>
-        <v>4.3315999999999999</v>
+        <f>AVERAGE(C7,D7,E7)</f>
+        <v>1.4438666666666666</v>
       </c>
       <c r="C7">
         <v>2.4161999999999999</v>
@@ -5015,7 +4633,7 @@
         <v>2.6749999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -5056,7 +4674,7 @@
         <v>0.30680000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -5097,7 +4715,7 @@
         <v>1.0084</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -5138,7 +4756,7 @@
         <v>-1.1214</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -5179,7 +4797,7 @@
         <v>2.0417000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -5220,7 +4838,7 @@
         <v>0.84799999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -5261,7 +4879,7 @@
         <v>0.55059999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -5302,7 +4920,7 @@
         <v>0.2419</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -5343,7 +4961,7 @@
         <v>0.69569999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -5384,13 +5002,13 @@
         <v>-1.0581</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <f>AVERAGE(C17+D17+E17)</f>
-        <v>1.6318000000000001</v>
+        <f>AVERAGE(C17,D17,E17)</f>
+        <v>0.54393333333333338</v>
       </c>
       <c r="C17">
         <v>0.12870000000000001</v>
@@ -5414,8 +5032,8 @@
         <v>-0.23730000000000001</v>
       </c>
       <c r="J17" s="5">
-        <f>AVERAGE(K17+L17+M17)</f>
-        <v>-2.8092000000000001</v>
+        <f>AVERAGE(K17,L17,M17)</f>
+        <v>-0.93640000000000001</v>
       </c>
       <c r="K17">
         <v>0.69140000000000001</v>
@@ -5446,9 +5064,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -5501,7 +5119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5554,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5607,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5660,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5713,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5766,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5819,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5872,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5925,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5978,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6031,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6084,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6137,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -6190,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -6243,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -6296,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -6368,9 +5986,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -6423,7 +6041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6476,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6529,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6582,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -6635,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6688,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6741,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6794,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -6847,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6900,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6953,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7006,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7059,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -7112,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -7165,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -7218,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>

--- a/data/GRNmap_input_workbooks/wt_NEW_Input_16_Node.xlsx
+++ b/data/GRNmap_input_workbooks/wt_NEW_Input_16_Node.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14145" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14145" tabRatio="500" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="4" r:id="rId1"/>
@@ -20,16 +20,11 @@
     <sheet name="threshold_b" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="59">
   <si>
     <t>ABF1</t>
   </si>
@@ -186,6 +181,27 @@
   <si>
     <t>simulation_timepoints</t>
   </si>
+  <si>
+    <t>optimization_parameter</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Sigmoid</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>-0.4964</t>
+  </si>
+  <si>
+    <t>-1.2101</t>
+  </si>
 </sst>
 </file>
 
@@ -194,9 +210,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -256,126 +279,130 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="106">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="106"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="106" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="106"/>
   </cellXfs>
-  <cellStyles count="106">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -482,6 +509,7 @@
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="106"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -924,99 +952,179 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="B4" s="8">
+        <v>100000000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1000000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="8">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
+      <c r="B7" s="8">
+        <v>1000000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B10">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>46</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B13">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>51</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>35</v>
+      </c>
+      <c r="J20">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>45</v>
+      </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+      <c r="M20">
+        <v>55</v>
+      </c>
+      <c r="N20">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1032,97 +1140,148 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1396,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2169,7 +2328,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2302,42 +2461,42 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.62</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="10">
+        <f>AVERAGE(C4:E4)</f>
+        <v>1.1682999999999999</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="9">
         <v>1.5289999999999999</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="9">
         <v>0.80759999999999998</v>
       </c>
-      <c r="E4">
-        <v>-0.49640000000000001</v>
-      </c>
-      <c r="F4">
-        <v>-1.2101</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="9">
         <v>1.6341000000000001</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="9">
         <v>1.2968999999999999</v>
       </c>
-      <c r="I4">
+      <c r="J4" s="9">
         <v>0.91249999999999998</v>
       </c>
-      <c r="J4">
+      <c r="K4" s="9">
         <v>-1.8798999999999999</v>
       </c>
-      <c r="K4">
+      <c r="L4" s="9">
         <v>1.1647000000000001</v>
       </c>
-      <c r="L4">
+      <c r="M4" s="9">
         <v>0.48599999999999999</v>
-      </c>
-      <c r="M4" s="5">
-        <f>AVERAGE(J4:L4)</f>
-        <v>-7.6399999999999954E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2883,11 +3042,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2896,7 +3050,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B33"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3618,7 +3772,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4337,8 +4491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4470,43 +4624,41 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>1.7266999999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>2.5236000000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <v>1.8438000000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <v>0.90859999999999996</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="11">
         <v>-0.10580000000000001</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="11">
         <v>1.2846</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="11">
         <v>1.0021</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="11">
         <v>0.75580000000000003</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="11">
         <v>0.54990000000000006</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="11">
         <v>-8.4199999999999997E-2</v>
       </c>
-      <c r="L4" s="5">
-        <f>AVERAGE(K4,J4)</f>
-        <v>0.23285000000000003</v>
-      </c>
-      <c r="M4" s="5">
-        <f>AVERAGE(J4,K4)</f>
-        <v>0.23285000000000003</v>
+      <c r="L4" s="11">
+        <v>0.63529999999999998</v>
+      </c>
+      <c r="M4" s="11">
+        <v>-9.1200000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -5048,11 +5200,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
